--- a/data/DAPI_ML_Adult.xlsx
+++ b/data/DAPI_ML_Adult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\R\IHC\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\LT-AoP-22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25163BB1-61D4-4719-8864-26D67DA8EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B7A75-60C4-4F03-90CE-9A157A9C370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{F435E7A4-5092-4088-A566-06C9208BC5B7}"/>
+    <workbookView xWindow="12300" yWindow="3825" windowWidth="15855" windowHeight="9030" xr2:uid="{F435E7A4-5092-4088-A566-06C9208BC5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="28">
   <si>
     <t>Slice</t>
   </si>
@@ -102,12 +102,6 @@
     <t>A_DAPI</t>
   </si>
   <si>
-    <t>! DAPI PAS BEAU</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -121,6 +115,9 @@
   </si>
   <si>
     <t>Mouse</t>
+  </si>
+  <si>
+    <t>Outlier</t>
   </si>
 </sst>
 </file>
@@ -242,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,24 +538,24 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -567,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>20</v>
@@ -576,13 +573,13 @@
         <v>21</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -593,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9">
         <v>964</v>
@@ -604,9 +601,11 @@
       <c r="G2" s="3">
         <v>6531.61</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9">
         <v>1217</v>
@@ -628,9 +627,11 @@
       <c r="G3" s="3">
         <v>14143.8</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -641,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9">
         <v>1018</v>
@@ -652,9 +653,11 @@
       <c r="G4" s="3">
         <v>13069.9</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -665,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9">
         <v>777</v>
@@ -676,9 +679,11 @@
       <c r="G5" s="3">
         <v>10769.9</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9">
         <v>1129</v>
@@ -700,9 +705,11 @@
       <c r="G6" s="3">
         <v>22552.1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9">
         <v>1147</v>
@@ -724,9 +731,11 @@
       <c r="G7" s="3">
         <v>23945.3</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9">
         <v>1197</v>
@@ -748,9 +757,11 @@
       <c r="G8" s="3">
         <v>37875.4</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9">
         <v>754</v>
@@ -772,9 +783,11 @@
       <c r="G9" s="3">
         <v>19370.400000000001</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -785,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9">
         <v>764</v>
@@ -796,9 +809,11 @@
       <c r="G10" s="3">
         <v>15720.1</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="9">
         <v>1135</v>
@@ -820,9 +835,11 @@
       <c r="G11" s="3">
         <v>27896.2</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="9">
         <v>1051</v>
@@ -844,9 +861,11 @@
       <c r="G12" s="3">
         <v>28109.9</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -857,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9">
         <v>1441</v>
@@ -868,9 +887,11 @@
       <c r="G13" s="3">
         <v>41352.6</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -881,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="9">
         <v>830</v>
@@ -892,9 +913,11 @@
       <c r="G14" s="3">
         <v>11118.6</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -905,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="9">
         <v>1151</v>
@@ -916,9 +939,11 @@
       <c r="G15" s="3">
         <v>20427.8</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -929,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="9">
         <v>1249</v>
@@ -940,11 +965,11 @@
       <c r="G16" s="3">
         <v>14297.2</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="9">
         <v>1250</v>
@@ -966,9 +991,11 @@
       <c r="G17" s="3">
         <v>5620.83</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>991</v>
@@ -990,9 +1017,11 @@
       <c r="G18" s="3">
         <v>26635.4</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9">
         <v>1199</v>
@@ -1014,9 +1043,11 @@
       <c r="G19" s="3">
         <v>15202.3</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9">
         <v>1026</v>
@@ -1038,9 +1069,11 @@
       <c r="G20" s="3">
         <v>24571.3</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9">
         <v>1138</v>
@@ -1062,9 +1095,11 @@
       <c r="G21" s="3">
         <v>19275.7</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9">
         <v>1106</v>
@@ -1086,9 +1121,11 @@
       <c r="G22" s="3">
         <v>14541.3</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9">
         <v>1226</v>
@@ -1110,9 +1147,11 @@
       <c r="G23" s="3">
         <v>12744</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9">
         <v>1027</v>
@@ -1134,9 +1173,11 @@
       <c r="G24" s="3">
         <v>8890.44</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9">
         <v>996</v>
@@ -1158,9 +1199,11 @@
       <c r="G25" s="3">
         <v>8669</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9">
         <v>1053</v>
@@ -1182,9 +1225,11 @@
       <c r="G26" s="3">
         <v>15010.5</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="9">
         <v>1249</v>
@@ -1206,9 +1251,11 @@
       <c r="G27" s="3">
         <v>12062.2</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="9">
         <v>1264</v>
@@ -1230,9 +1277,11 @@
       <c r="G28" s="3">
         <v>27136.9</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29" s="9">
         <v>1281</v>
@@ -1254,9 +1303,11 @@
       <c r="G29" s="3">
         <v>23921.9</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="9">
         <v>1306</v>
@@ -1278,9 +1329,11 @@
       <c r="G30" s="3">
         <v>21068</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31" s="9">
         <v>1079</v>
@@ -1302,9 +1355,11 @@
       <c r="G31" s="3">
         <v>8772.44</v>
       </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32" s="9">
         <v>1093</v>
@@ -1326,9 +1381,11 @@
       <c r="G32" s="3">
         <v>10984.3</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" s="9">
         <v>969</v>
@@ -1350,9 +1407,11 @@
       <c r="G33" s="3">
         <v>9228.59</v>
       </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34" s="9">
         <v>1252</v>
@@ -1374,9 +1433,11 @@
       <c r="G34" s="3">
         <v>9780.9500000000007</v>
       </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35" s="9">
         <v>1244</v>
@@ -1398,9 +1459,11 @@
       <c r="G35" s="3">
         <v>3073.23</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36" s="9">
         <v>1606</v>
@@ -1422,9 +1485,11 @@
       <c r="G36" s="3">
         <v>8467.35</v>
       </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" s="9">
         <v>1012</v>
@@ -1446,9 +1511,11 @@
       <c r="G37" s="3">
         <v>13400.5</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E38" s="9">
         <v>1162</v>
@@ -1470,9 +1537,11 @@
       <c r="G38" s="3">
         <v>4630.63</v>
       </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E39" s="9">
         <v>1326</v>
@@ -1494,9 +1563,11 @@
       <c r="G39" s="3">
         <v>7001.7</v>
       </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40" s="9">
         <v>1246</v>
@@ -1518,9 +1589,11 @@
       <c r="G40" s="3">
         <v>10456.6</v>
       </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" s="9">
         <v>1481</v>
@@ -1542,9 +1615,11 @@
       <c r="G41" s="3">
         <v>4641.58</v>
       </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="9">
         <v>952</v>
@@ -1566,9 +1641,11 @@
       <c r="G42" s="3">
         <v>5735.35</v>
       </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E43" s="9">
         <v>1003</v>
@@ -1590,9 +1667,11 @@
       <c r="G43" s="3">
         <v>2064.86</v>
       </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" s="9">
         <v>1236</v>
@@ -1614,9 +1693,11 @@
       <c r="G44" s="3">
         <v>14111.4</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" s="9">
         <v>1083</v>
@@ -1638,9 +1719,11 @@
       <c r="G45" s="3">
         <v>13170.5</v>
       </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46" s="9">
         <v>1506</v>
@@ -1662,9 +1745,11 @@
       <c r="G46" s="3">
         <v>17270.8</v>
       </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E47" s="9">
         <v>653</v>
@@ -1686,9 +1771,11 @@
       <c r="G47" s="3">
         <v>10799.4</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E48" s="9">
         <v>1167</v>
@@ -1710,9 +1797,11 @@
       <c r="G48" s="3">
         <v>22622.400000000001</v>
       </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49" s="9">
         <v>1415</v>
@@ -1734,9 +1823,11 @@
       <c r="G49" s="3">
         <v>39024.800000000003</v>
       </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" s="9">
         <v>1566</v>
@@ -1758,9 +1849,11 @@
       <c r="G50" s="3">
         <v>36762.1</v>
       </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E51" s="9">
         <v>1090</v>
@@ -1782,9 +1875,11 @@
       <c r="G51" s="3">
         <v>20498.099999999999</v>
       </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52" s="9">
         <v>1132</v>
@@ -1806,9 +1901,11 @@
       <c r="G52" s="3">
         <v>30774.400000000001</v>
       </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -1819,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E53" s="9">
         <v>1134</v>
@@ -1830,9 +1927,11 @@
       <c r="G53" s="3">
         <v>20938.599999999999</v>
       </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54" s="9">
         <v>1396</v>
@@ -1854,9 +1953,11 @@
       <c r="G54" s="3">
         <v>22675.8</v>
       </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E55" s="9">
         <v>929</v>
@@ -1878,9 +1979,11 @@
       <c r="G55" s="3">
         <v>30382.2</v>
       </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E56" s="9">
         <v>1092</v>
@@ -1902,9 +2005,11 @@
       <c r="G56" s="3">
         <v>34313.4</v>
       </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E57" s="9">
         <v>916</v>
@@ -1926,9 +2031,11 @@
       <c r="G57" s="3">
         <v>27568.799999999999</v>
       </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58" s="9">
         <v>1428</v>
@@ -1950,9 +2057,11 @@
       <c r="G58" s="3">
         <v>31844</v>
       </c>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E59" s="9">
         <v>1520</v>
@@ -1974,9 +2083,11 @@
       <c r="G59" s="3">
         <v>23185.7</v>
       </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E60" s="9">
         <v>1214</v>
@@ -1998,9 +2109,11 @@
       <c r="G60" s="3">
         <v>10377.700000000001</v>
       </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E61" s="9">
         <v>1322</v>
@@ -2022,9 +2135,11 @@
       <c r="G61" s="3">
         <v>13866.9</v>
       </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62" s="9">
         <v>606</v>
@@ -2046,9 +2161,11 @@
       <c r="G62" s="3">
         <v>10358</v>
       </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
@@ -2059,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E63" s="9">
         <v>791</v>
@@ -2070,9 +2187,11 @@
       <c r="G63" s="3">
         <v>3629.94</v>
       </c>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E64" s="9">
         <v>1196</v>
@@ -2094,9 +2213,11 @@
       <c r="G64" s="3">
         <v>22671.7</v>
       </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -2107,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E65" s="9">
         <v>1547</v>
@@ -2118,9 +2239,11 @@
       <c r="G65" s="3">
         <v>39744.300000000003</v>
       </c>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
@@ -2131,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E66" s="9">
         <v>1507</v>
@@ -2142,9 +2265,11 @@
       <c r="G66" s="3">
         <v>34345.599999999999</v>
       </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E67" s="9">
         <v>1532</v>
@@ -2166,9 +2291,11 @@
       <c r="G67" s="3">
         <v>23266.7</v>
       </c>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
@@ -2179,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E68" s="9">
         <v>1015</v>
@@ -2190,9 +2317,11 @@
       <c r="G68" s="3">
         <v>18313.3</v>
       </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E69" s="9">
         <v>1226</v>
@@ -2214,9 +2343,11 @@
       <c r="G69" s="3">
         <v>17745.099999999999</v>
       </c>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
@@ -2227,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E70" s="9">
         <v>1268</v>
@@ -2238,9 +2369,11 @@
       <c r="G70" s="3">
         <v>10281.9</v>
       </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E71" s="9">
         <v>1373</v>
@@ -2262,9 +2395,11 @@
       <c r="G71" s="3">
         <v>16564.2</v>
       </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>12</v>
       </c>
@@ -2275,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E72" s="9">
         <v>974</v>
@@ -2286,9 +2421,11 @@
       <c r="G72" s="3">
         <v>10955.3</v>
       </c>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73" s="9">
         <v>591</v>
@@ -2310,9 +2447,11 @@
       <c r="G73" s="3">
         <v>16579.2</v>
       </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E74" s="9">
         <v>992</v>
@@ -2334,9 +2473,11 @@
       <c r="G74" s="3">
         <v>16116</v>
       </c>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>12</v>
       </c>
@@ -2347,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E75" s="9">
         <v>1324</v>
@@ -2358,9 +2499,11 @@
       <c r="G75" s="3">
         <v>12631.5</v>
       </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E76" s="9">
         <v>1064</v>
@@ -2382,9 +2525,11 @@
       <c r="G76" s="3">
         <v>26384.1</v>
       </c>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E77" s="9">
         <v>965</v>
@@ -2406,9 +2551,11 @@
       <c r="G77" s="3">
         <v>23780.1</v>
       </c>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E78" s="9">
         <v>1406</v>
@@ -2430,9 +2577,11 @@
       <c r="G78" s="3">
         <v>33219.199999999997</v>
       </c>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2443,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E79" s="9">
         <v>916</v>
@@ -2454,9 +2603,11 @@
       <c r="G79" s="3">
         <v>11977</v>
       </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E80" s="9">
         <v>937</v>
@@ -2478,9 +2629,11 @@
       <c r="G80" s="3">
         <v>6696.52</v>
       </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E81" s="9">
         <v>1135</v>
@@ -2502,9 +2655,11 @@
       <c r="G81" s="3">
         <v>13371.9</v>
       </c>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E82" s="9">
         <v>1031</v>
@@ -2526,9 +2681,11 @@
       <c r="G82" s="3">
         <v>12806.6</v>
       </c>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>12</v>
       </c>
@@ -2539,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E83" s="9">
         <v>874</v>
@@ -2550,9 +2707,11 @@
       <c r="G83" s="3">
         <v>11101.7</v>
       </c>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E84" s="9">
         <v>1148</v>
@@ -2574,9 +2733,11 @@
       <c r="G84" s="3">
         <v>25329.7</v>
       </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E85" s="9">
         <v>1162</v>
@@ -2598,9 +2759,11 @@
       <c r="G85" s="3">
         <v>10114.799999999999</v>
       </c>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E86" s="9">
         <v>1081</v>
@@ -2622,9 +2785,11 @@
       <c r="G86" s="3">
         <v>14983.1</v>
       </c>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>12</v>
       </c>
@@ -2635,7 +2800,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E87" s="9">
         <v>1148</v>
@@ -2646,9 +2811,11 @@
       <c r="G87" s="3">
         <v>25375.5</v>
       </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -2659,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E88" s="9">
         <v>1419</v>
@@ -2670,9 +2837,11 @@
       <c r="G88" s="3">
         <v>28740.6</v>
       </c>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
@@ -2683,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E89" s="9">
         <v>793</v>
@@ -2694,9 +2863,11 @@
       <c r="G89" s="3">
         <v>12844.1</v>
       </c>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +2878,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E90" s="10">
         <v>1230</v>
@@ -2718,9 +2889,11 @@
       <c r="G90" s="3">
         <v>28711.9</v>
       </c>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>13</v>
       </c>
@@ -2731,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E91" s="10">
         <v>1348</v>
@@ -2742,9 +2915,11 @@
       <c r="G91" s="3">
         <v>25638.9</v>
       </c>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E92" s="10">
         <v>1053</v>
@@ -2766,9 +2941,11 @@
       <c r="G92" s="3">
         <v>21387.200000000001</v>
       </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E93" s="10">
         <v>1094</v>
@@ -2790,9 +2967,11 @@
       <c r="G93" s="3">
         <v>21243.8</v>
       </c>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E94" s="10">
         <v>1228</v>
@@ -2814,9 +2993,11 @@
       <c r="G94" s="3">
         <v>10495.4</v>
       </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E95" s="10">
         <v>1277</v>
@@ -2838,9 +3019,11 @@
       <c r="G95" s="3">
         <v>20812.5</v>
       </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>13</v>
       </c>
@@ -2851,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E96" s="10">
         <v>1537</v>
@@ -2862,9 +3045,11 @@
       <c r="G96" s="3">
         <v>11950.8</v>
       </c>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E97" s="10">
         <v>1289</v>
@@ -2886,9 +3071,11 @@
       <c r="G97" s="3">
         <v>11483.2</v>
       </c>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>13</v>
       </c>
@@ -2899,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E98" s="10">
         <v>665</v>
@@ -2910,9 +3097,11 @@
       <c r="G98" s="3">
         <v>11114.6</v>
       </c>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>13</v>
       </c>
@@ -2923,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E99" s="10">
         <v>920</v>
@@ -2934,9 +3123,11 @@
       <c r="G99" s="3">
         <v>13077.2</v>
       </c>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>13</v>
       </c>
@@ -2947,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E100" s="10">
         <v>1325</v>
@@ -2958,9 +3149,11 @@
       <c r="G100" s="3">
         <v>34208.5</v>
       </c>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E101" s="10">
         <v>1050</v>
@@ -2982,9 +3175,11 @@
       <c r="G101" s="3">
         <v>10585.8</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>13</v>
       </c>
@@ -2995,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E102" s="10">
         <v>1190</v>
@@ -3006,9 +3201,11 @@
       <c r="G102" s="3">
         <v>24597.4</v>
       </c>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3216,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E103" s="10">
         <v>1475</v>
@@ -3030,9 +3227,11 @@
       <c r="G103" s="3">
         <v>29258.799999999999</v>
       </c>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3242,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E104" s="10">
         <v>1464</v>
@@ -3054,9 +3253,11 @@
       <c r="G104" s="3">
         <v>17069.7</v>
       </c>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>13</v>
       </c>
@@ -3067,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E105" s="10">
         <v>1330</v>
@@ -3078,9 +3279,11 @@
       <c r="G105" s="3">
         <v>14492.2</v>
       </c>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E106" s="10">
         <v>1219</v>
@@ -3102,9 +3305,11 @@
       <c r="G106" s="3">
         <v>28671.9</v>
       </c>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
@@ -3115,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E107" s="10">
         <v>1547</v>
@@ -3126,9 +3331,11 @@
       <c r="G107" s="3">
         <v>32200.3</v>
       </c>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E108" s="10">
         <v>1118</v>
@@ -3150,9 +3357,11 @@
       <c r="G108" s="3">
         <v>5080.8999999999996</v>
       </c>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>13</v>
       </c>
@@ -3163,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E109" s="10">
         <v>907</v>
@@ -3174,9 +3383,11 @@
       <c r="G109" s="3">
         <v>6357.28</v>
       </c>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>13</v>
       </c>
@@ -3187,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E110" s="10">
         <v>1016</v>
@@ -3198,9 +3409,11 @@
       <c r="G110" s="3">
         <v>18577.599999999999</v>
       </c>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E111" s="10">
         <v>1320</v>
@@ -3222,9 +3435,11 @@
       <c r="G111" s="3">
         <v>26758.5</v>
       </c>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3450,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E112" s="10">
         <v>1008</v>
@@ -3246,9 +3461,11 @@
       <c r="G112" s="3">
         <v>12922.5</v>
       </c>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>13</v>
       </c>
@@ -3259,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E113" s="10">
         <v>1261</v>
@@ -3270,9 +3487,11 @@
       <c r="G113" s="3">
         <v>21816.1</v>
       </c>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>13</v>
       </c>
@@ -3283,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E114" s="10">
         <v>1059</v>
@@ -3294,9 +3513,11 @@
       <c r="G114" s="3">
         <v>9688.94</v>
       </c>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E115" s="10">
         <v>1205</v>
@@ -3318,9 +3539,11 @@
       <c r="G115" s="3">
         <v>14403.4</v>
       </c>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E116" s="10">
         <v>1157</v>
@@ -3342,9 +3565,11 @@
       <c r="G116" s="3">
         <v>30226.7</v>
       </c>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E117" s="10">
         <v>1289</v>
@@ -3366,9 +3591,11 @@
       <c r="G117" s="3">
         <v>37434.5</v>
       </c>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
@@ -3379,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E118" s="9">
         <v>1020</v>
@@ -3390,9 +3617,11 @@
       <c r="G118" s="3">
         <v>4754.2</v>
       </c>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>13</v>
       </c>
@@ -3403,7 +3632,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E119" s="9">
         <v>1142</v>
@@ -3414,9 +3643,11 @@
       <c r="G119" s="3">
         <v>34733.5</v>
       </c>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>13</v>
       </c>
@@ -3427,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E120" s="9">
         <v>900</v>
@@ -3438,9 +3669,11 @@
       <c r="G120" s="3">
         <v>12566.3</v>
       </c>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>13</v>
       </c>
@@ -3451,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E121" s="9">
         <v>1448</v>
@@ -3462,9 +3695,11 @@
       <c r="G121" s="3">
         <v>26329.599999999999</v>
       </c>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E122" s="9">
         <v>1511</v>
@@ -3486,8 +3721,11 @@
       <c r="G122" s="3">
         <v>35475.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E123" s="9">
         <v>1143</v>
@@ -3509,8 +3747,11 @@
       <c r="G123" s="3">
         <v>14556.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>14</v>
       </c>
@@ -3521,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E124" s="9">
         <v>1427</v>
@@ -3532,8 +3773,11 @@
       <c r="G124" s="3">
         <v>18915</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>14</v>
       </c>
@@ -3544,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E125" s="9">
         <v>1012</v>
@@ -3555,8 +3799,11 @@
       <c r="G125" s="3">
         <v>27274.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>14</v>
       </c>
@@ -3567,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E126" s="9">
         <v>1405</v>
@@ -3578,8 +3825,11 @@
       <c r="G126" s="3">
         <v>15607.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E127" s="9">
         <v>1326</v>
@@ -3601,8 +3851,11 @@
       <c r="G127" s="3">
         <v>22121.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>14</v>
       </c>
@@ -3613,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E128" s="9">
         <v>1314</v>
@@ -3624,8 +3877,11 @@
       <c r="G128" s="3">
         <v>12147.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>14</v>
       </c>
@@ -3636,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E129" s="9">
         <v>775</v>
@@ -3647,8 +3903,11 @@
       <c r="G129" s="3">
         <v>21091.200000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>14</v>
       </c>
@@ -3659,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E130" s="9">
         <v>1079</v>
@@ -3670,8 +3929,11 @@
       <c r="G130" s="3">
         <v>11155.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>14</v>
       </c>
@@ -3682,7 +3944,7 @@
         <v>7</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E131" s="9">
         <v>1114</v>
@@ -3693,8 +3955,11 @@
       <c r="G131" s="3">
         <v>17308.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3970,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E132" s="9">
         <v>1207</v>
@@ -3716,8 +3981,11 @@
       <c r="G132" s="3">
         <v>18744.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E133" s="9">
         <v>1274</v>
@@ -3739,8 +4007,11 @@
       <c r="G133" s="3">
         <v>19302.599999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E134" s="9">
         <v>1349</v>
@@ -3762,8 +4033,11 @@
       <c r="G134" s="3">
         <v>30482.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>14</v>
       </c>
@@ -3774,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E135" s="9">
         <v>1598</v>
@@ -3785,8 +4059,11 @@
       <c r="G135" s="3">
         <v>30714.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>14</v>
       </c>
@@ -3797,7 +4074,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E136" s="9">
         <v>1119</v>
@@ -3808,8 +4085,11 @@
       <c r="G136" s="3">
         <v>63659.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>14</v>
       </c>
@@ -3820,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E137" s="9">
         <v>1604</v>
@@ -3831,8 +4111,11 @@
       <c r="G137" s="3">
         <v>26518.799999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>14</v>
       </c>
@@ -3843,7 +4126,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E138" s="9">
         <v>1223</v>
@@ -3854,8 +4137,11 @@
       <c r="G138" s="3">
         <v>15433.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>14</v>
       </c>
@@ -3866,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E139" s="9">
         <v>1488</v>
@@ -3877,8 +4163,11 @@
       <c r="G139" s="3">
         <v>29465.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>14</v>
       </c>
@@ -3889,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E140" s="9">
         <v>1439</v>
@@ -3900,8 +4189,11 @@
       <c r="G140" s="3">
         <v>59614.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E141" s="9">
         <v>1444</v>
@@ -3923,8 +4215,11 @@
       <c r="G141" s="3">
         <v>22380.7</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>14</v>
       </c>
@@ -3935,7 +4230,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E142" s="9">
         <v>999</v>
@@ -3946,8 +4241,11 @@
       <c r="G142" s="3">
         <v>5715.64</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E143" s="9">
         <v>947</v>
@@ -3969,8 +4267,11 @@
       <c r="G143" s="3">
         <v>3937.26</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>14</v>
       </c>
@@ -3981,7 +4282,7 @@
         <v>7</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E144" s="9">
         <v>1443</v>
@@ -3992,8 +4293,11 @@
       <c r="G144" s="3">
         <v>10405</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>14</v>
       </c>
@@ -4004,7 +4308,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E145" s="9">
         <v>1213</v>
@@ -4015,8 +4319,11 @@
       <c r="G145" s="3">
         <v>3174.89</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>17</v>
       </c>
@@ -4027,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E146" s="9">
         <v>1181</v>
@@ -4038,8 +4345,11 @@
       <c r="G146" s="3">
         <v>19470.599999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>17</v>
       </c>
@@ -4050,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E147" s="9">
         <v>1013</v>
@@ -4061,8 +4371,11 @@
       <c r="G147" s="3">
         <v>19566.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>17</v>
       </c>
@@ -4073,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E148" s="9">
         <v>1082</v>
@@ -4084,8 +4397,11 @@
       <c r="G148" s="3">
         <v>20741.400000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>17</v>
       </c>
@@ -4096,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E149" s="9">
         <v>1148</v>
@@ -4107,8 +4423,11 @@
       <c r="G149" s="3">
         <v>33805.599999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>17</v>
       </c>
@@ -4119,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E150" s="9">
         <v>1234</v>
@@ -4130,8 +4449,11 @@
       <c r="G150" s="3">
         <v>18894.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>17</v>
       </c>
@@ -4142,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E151" s="9">
         <v>1479</v>
@@ -4153,8 +4475,11 @@
       <c r="G151" s="3">
         <v>17588.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>17</v>
       </c>
@@ -4165,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E152" s="9">
         <v>1168</v>
@@ -4176,8 +4501,11 @@
       <c r="G152" s="3">
         <v>26282.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>17</v>
       </c>
@@ -4188,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E153" s="9">
         <v>1342</v>
@@ -4199,8 +4527,11 @@
       <c r="G153" s="3">
         <v>37347.599999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>17</v>
       </c>
@@ -4211,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E154" s="9">
         <v>1365</v>
@@ -4222,8 +4553,11 @@
       <c r="G154" s="3">
         <v>17738.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>17</v>
       </c>
@@ -4234,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E155" s="9">
         <v>1172</v>
@@ -4245,8 +4579,11 @@
       <c r="G155" s="3">
         <v>21634.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E156" s="9">
         <v>1139</v>
@@ -4268,8 +4605,11 @@
       <c r="G156" s="3">
         <v>17380.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>17</v>
       </c>
@@ -4280,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E157" s="9">
         <v>1554</v>
@@ -4291,8 +4631,11 @@
       <c r="G157" s="3">
         <v>26652</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>17</v>
       </c>
@@ -4303,7 +4646,7 @@
         <v>7</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E158" s="9">
         <v>651</v>
@@ -4314,8 +4657,11 @@
       <c r="G158" s="3">
         <v>20847.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>17</v>
       </c>
@@ -4326,7 +4672,7 @@
         <v>8</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E159" s="9">
         <v>1477</v>
@@ -4337,8 +4683,11 @@
       <c r="G159" s="3">
         <v>29239.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>17</v>
       </c>
@@ -4349,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E160" s="9">
         <v>1174</v>
@@ -4360,8 +4709,11 @@
       <c r="G160" s="3">
         <v>31320.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>17</v>
       </c>
@@ -4372,7 +4724,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E161" s="9">
         <v>1221</v>
@@ -4383,8 +4735,11 @@
       <c r="G161" s="3">
         <v>25061.599999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>17</v>
       </c>
@@ -4395,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E162" s="9">
         <v>1072</v>
@@ -4406,8 +4761,11 @@
       <c r="G162" s="3">
         <v>28346.799999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>17</v>
       </c>
@@ -4418,7 +4776,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E163" s="9">
         <v>1298</v>
@@ -4429,8 +4787,11 @@
       <c r="G163" s="3">
         <v>40363</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E164" s="9">
         <v>1341</v>
@@ -4452,8 +4813,11 @@
       <c r="G164" s="3">
         <v>34786.699999999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>17</v>
       </c>
@@ -4464,7 +4828,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E165" s="9">
         <v>1180</v>
@@ -4475,8 +4839,11 @@
       <c r="G165" s="3">
         <v>25119</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E166" s="9">
         <v>727</v>
@@ -4498,8 +4865,11 @@
       <c r="G166" s="3">
         <v>16519.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>17</v>
       </c>
@@ -4510,7 +4880,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E167" s="9">
         <v>1625</v>
@@ -4521,8 +4891,11 @@
       <c r="G167" s="3">
         <v>26903.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>17</v>
       </c>
@@ -4533,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E168" s="9">
         <v>1482</v>
@@ -4544,8 +4917,11 @@
       <c r="G168" s="3">
         <v>26704.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>17</v>
       </c>
@@ -4556,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E169" s="9">
         <v>1010</v>
@@ -4567,8 +4943,11 @@
       <c r="G169" s="3">
         <v>19921.400000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>17</v>
       </c>
@@ -4579,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E170" s="9">
         <v>1299</v>
@@ -4590,8 +4969,11 @@
       <c r="G170" s="3">
         <v>29765</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>17</v>
       </c>
@@ -4602,7 +4984,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E171" s="9">
         <v>1283</v>
@@ -4613,8 +4995,11 @@
       <c r="G171" s="3">
         <v>26929.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E172" s="9">
         <v>1063</v>
@@ -4636,8 +5021,11 @@
       <c r="G172" s="3">
         <v>31554.2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>17</v>
       </c>
@@ -4648,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E173" s="9">
         <v>1611</v>
@@ -4659,8 +5047,11 @@
       <c r="G173" s="3">
         <v>32469.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>17</v>
       </c>
@@ -4671,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E174" s="9">
         <v>1070</v>
@@ -4682,8 +5073,11 @@
       <c r="G174" s="3">
         <v>20043.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>17</v>
       </c>
@@ -4694,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E175" s="9">
         <v>958</v>
@@ -4705,8 +5099,11 @@
       <c r="G175" s="3">
         <v>21921.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>17</v>
       </c>
@@ -4717,7 +5114,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E176" s="9">
         <v>949</v>
@@ -4728,8 +5125,11 @@
       <c r="G176" s="3">
         <v>31184.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>17</v>
       </c>
@@ -4740,7 +5140,7 @@
         <v>10</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E177" s="9">
         <v>1257</v>
@@ -4751,8 +5151,11 @@
       <c r="G177" s="3">
         <v>28918.400000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>18</v>
       </c>
@@ -4763,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E178" s="9">
         <v>1519</v>
@@ -4774,8 +5177,11 @@
       <c r="G178" s="3">
         <v>26404.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>18</v>
       </c>
@@ -4786,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E179" s="9">
         <v>1610</v>
@@ -4797,8 +5203,11 @@
       <c r="G179" s="3">
         <v>37939.4</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>18</v>
       </c>
@@ -4809,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E180" s="9">
         <v>1295</v>
@@ -4820,8 +5229,11 @@
       <c r="G180" s="3">
         <v>29521.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>18</v>
       </c>
@@ -4832,7 +5244,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E181" s="9">
         <v>1570</v>
@@ -4843,8 +5255,11 @@
       <c r="G181" s="3">
         <v>31350.9</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>18</v>
       </c>
@@ -4855,7 +5270,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E182" s="9">
         <v>1209</v>
@@ -4866,8 +5281,11 @@
       <c r="G182" s="3">
         <v>29937.1</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>18</v>
       </c>
@@ -4878,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E183" s="9">
         <v>880</v>
@@ -4889,8 +5307,11 @@
       <c r="G183" s="3">
         <v>19369.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>18</v>
       </c>
@@ -4901,7 +5322,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E184" s="9">
         <v>1339</v>
@@ -4912,8 +5333,11 @@
       <c r="G184" s="3">
         <v>28332.3</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>18</v>
       </c>
@@ -4924,7 +5348,7 @@
         <v>10</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E185" s="9">
         <v>1138</v>
@@ -4935,8 +5359,11 @@
       <c r="G185" s="3">
         <v>26106.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>18</v>
       </c>
@@ -4947,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E186" s="9">
         <v>1505</v>
@@ -4958,8 +5385,11 @@
       <c r="G186" s="3">
         <v>38689.599999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>18</v>
       </c>
@@ -4970,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E187" s="9">
         <v>861</v>
@@ -4981,8 +5411,11 @@
       <c r="G187" s="3">
         <v>24593.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>18</v>
       </c>
@@ -4993,7 +5426,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E188" s="9">
         <v>1173</v>
@@ -5004,8 +5437,11 @@
       <c r="G188" s="3">
         <v>32105.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>18</v>
       </c>
@@ -5016,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E189" s="9">
         <v>652</v>
@@ -5027,8 +5463,11 @@
       <c r="G189" s="3">
         <v>18566.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>18</v>
       </c>
@@ -5039,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E190" s="9">
         <v>1300</v>
@@ -5050,8 +5489,11 @@
       <c r="G190" s="3">
         <v>42665.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>18</v>
       </c>
@@ -5062,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E191" s="9">
         <v>904</v>
@@ -5073,8 +5515,11 @@
       <c r="G191" s="3">
         <v>30908.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>18</v>
       </c>
@@ -5085,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E192" s="9">
         <v>895</v>
@@ -5096,8 +5541,11 @@
       <c r="G192" s="3">
         <v>34765</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>18</v>
       </c>
@@ -5108,7 +5556,7 @@
         <v>10</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E193" s="9">
         <v>1507</v>
@@ -5119,8 +5567,11 @@
       <c r="G193" s="3">
         <v>43720.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>18</v>
       </c>
@@ -5131,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E194" s="9">
         <v>1253</v>
@@ -5142,8 +5593,11 @@
       <c r="G194" s="3">
         <v>30367.200000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>18</v>
       </c>
@@ -5154,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E195" s="9">
         <v>1124</v>
@@ -5165,8 +5619,11 @@
       <c r="G195" s="3">
         <v>31769.4</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>18</v>
       </c>
@@ -5177,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E196" s="9">
         <v>1031</v>
@@ -5188,8 +5645,11 @@
       <c r="G196" s="3">
         <v>31000.7</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>18</v>
       </c>
@@ -5200,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E197" s="9">
         <v>1317</v>
@@ -5211,8 +5671,11 @@
       <c r="G197" s="3">
         <v>48277.7</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>18</v>
       </c>
@@ -5223,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E198" s="9">
         <v>1111</v>
@@ -5234,8 +5697,11 @@
       <c r="G198" s="3">
         <v>20888.3</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E199" s="9">
         <v>1045</v>
@@ -5257,8 +5723,11 @@
       <c r="G199" s="3">
         <v>23547.200000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>18</v>
       </c>
@@ -5269,7 +5738,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E200" s="9">
         <v>941</v>
@@ -5280,8 +5749,11 @@
       <c r="G200" s="3">
         <v>32084.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>18</v>
       </c>
@@ -5292,7 +5764,7 @@
         <v>10</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E201" s="9">
         <v>922</v>
@@ -5303,8 +5775,11 @@
       <c r="G201" s="3">
         <v>27272.799999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>18</v>
       </c>
@@ -5315,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E202" s="9">
         <v>1289</v>
@@ -5326,8 +5801,11 @@
       <c r="G202" s="3">
         <v>26594.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>18</v>
       </c>
@@ -5338,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E203" s="9">
         <v>1001</v>
@@ -5349,8 +5827,11 @@
       <c r="G203" s="3">
         <v>38039.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>18</v>
       </c>
@@ -5361,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E204" s="9">
         <v>950</v>
@@ -5372,8 +5853,11 @@
       <c r="G204" s="3">
         <v>27795.3</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>18</v>
       </c>
@@ -5384,7 +5868,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E205" s="9">
         <v>1550</v>
@@ -5395,8 +5879,11 @@
       <c r="G205" s="3">
         <v>35672.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>18</v>
       </c>
@@ -5407,7 +5894,7 @@
         <v>7</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E206" s="9">
         <v>1282</v>
@@ -5418,8 +5905,11 @@
       <c r="G206" s="3">
         <v>35299.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>18</v>
       </c>
@@ -5430,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E207" s="9">
         <v>1107</v>
@@ -5441,8 +5931,11 @@
       <c r="G207" s="3">
         <v>31434.1</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>18</v>
       </c>
@@ -5453,7 +5946,7 @@
         <v>9</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E208" s="9">
         <v>863</v>
@@ -5464,8 +5957,11 @@
       <c r="G208" s="3">
         <v>14011.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>18</v>
       </c>
@@ -5476,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E209" s="9">
         <v>941</v>
@@ -5487,8 +5983,11 @@
       <c r="G209" s="3">
         <v>37490.400000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>19</v>
       </c>
@@ -5499,7 +5998,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E210" s="9">
         <v>1226</v>
@@ -5510,8 +6009,11 @@
       <c r="G210" s="3">
         <v>42350.7</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>19</v>
       </c>
@@ -5522,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E211" s="9">
         <v>1386</v>
@@ -5533,8 +6035,11 @@
       <c r="G211" s="3">
         <v>11367.2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>19</v>
       </c>
@@ -5545,7 +6050,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E212" s="9">
         <v>1077</v>
@@ -5556,8 +6061,11 @@
       <c r="G212" s="3">
         <v>20915.7</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>19</v>
       </c>
@@ -5568,7 +6076,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E213" s="9">
         <v>1374</v>
@@ -5579,8 +6087,11 @@
       <c r="G213" s="3">
         <v>48534.6</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>19</v>
       </c>
@@ -5591,7 +6102,7 @@
         <v>7</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E214" s="9">
         <v>1246</v>
@@ -5602,8 +6113,11 @@
       <c r="G214" s="3">
         <v>10202</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>19</v>
       </c>
@@ -5614,7 +6128,7 @@
         <v>8</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E215" s="9">
         <v>710</v>
@@ -5625,8 +6139,11 @@
       <c r="G215" s="3">
         <v>19076.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>19</v>
       </c>
@@ -5637,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E216" s="9">
         <v>1470</v>
@@ -5648,8 +6165,11 @@
       <c r="G216" s="3">
         <v>12976.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>19</v>
       </c>
@@ -5660,7 +6180,7 @@
         <v>10</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E217" s="9">
         <v>1227</v>
@@ -5671,8 +6191,11 @@
       <c r="G217" s="3">
         <v>17202.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>19</v>
       </c>
@@ -5683,7 +6206,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E218" s="9">
         <v>950</v>
@@ -5694,8 +6217,11 @@
       <c r="G218" s="3">
         <v>31115.4</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>19</v>
       </c>
@@ -5706,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E219" s="9">
         <v>636</v>
@@ -5717,8 +6243,11 @@
       <c r="G219" s="3">
         <v>22922.7</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>19</v>
       </c>
@@ -5729,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E220" s="9">
         <v>986</v>
@@ -5740,8 +6269,11 @@
       <c r="G220" s="3">
         <v>23570.1</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>19</v>
       </c>
@@ -5752,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E221" s="9">
         <v>822</v>
@@ -5763,8 +6295,11 @@
       <c r="G221" s="3">
         <v>22453.599999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>19</v>
       </c>
@@ -5775,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E222" s="9">
         <v>1234</v>
@@ -5786,8 +6321,11 @@
       <c r="G222" s="3">
         <v>44833.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>19</v>
       </c>
@@ -5798,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E223" s="9">
         <v>918</v>
@@ -5809,8 +6347,11 @@
       <c r="G223" s="3">
         <v>25828.3</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>19</v>
       </c>
@@ -5821,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E224" s="9">
         <v>824</v>
@@ -5832,8 +6373,11 @@
       <c r="G224" s="3">
         <v>27460.3</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>19</v>
       </c>
@@ -5844,7 +6388,7 @@
         <v>10</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E225" s="9">
         <v>911</v>
@@ -5855,8 +6399,11 @@
       <c r="G225" s="3">
         <v>30364</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>19</v>
       </c>
@@ -5867,7 +6414,7 @@
         <v>3</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E226" s="9">
         <v>983</v>
@@ -5878,8 +6425,11 @@
       <c r="G226" s="3">
         <v>24855.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H226" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>19</v>
       </c>
@@ -5890,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E227" s="9">
         <v>1508</v>
@@ -5901,8 +6451,11 @@
       <c r="G227" s="3">
         <v>38141.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>19</v>
       </c>
@@ -5913,7 +6466,7 @@
         <v>5</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E228" s="9">
         <v>1236</v>
@@ -5924,8 +6477,11 @@
       <c r="G228" s="3">
         <v>39857.1</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>19</v>
       </c>
@@ -5936,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E229" s="9">
         <v>912</v>
@@ -5947,8 +6503,11 @@
       <c r="G229" s="3">
         <v>69537.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>19</v>
       </c>
@@ -5959,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E230" s="9">
         <v>1331</v>
@@ -5970,8 +6529,11 @@
       <c r="G230" s="3">
         <v>76796.100000000006</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>19</v>
       </c>
@@ -5982,7 +6544,7 @@
         <v>8</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E231" s="9">
         <v>812</v>
@@ -5993,8 +6555,11 @@
       <c r="G231" s="3">
         <v>39057.300000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>19</v>
       </c>
@@ -6005,7 +6570,7 @@
         <v>9</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E232" s="9">
         <v>1169</v>
@@ -6016,8 +6581,11 @@
       <c r="G232" s="3">
         <v>27175.4</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>19</v>
       </c>
@@ -6028,7 +6596,7 @@
         <v>10</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E233" s="9">
         <v>962</v>
@@ -6039,8 +6607,11 @@
       <c r="G233" s="3">
         <v>33537.599999999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>19</v>
       </c>
@@ -6051,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E234" s="9">
         <v>978</v>
@@ -6062,8 +6633,11 @@
       <c r="G234" s="3">
         <v>49646.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>19</v>
       </c>
@@ -6074,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E235" s="9">
         <v>1522</v>
@@ -6085,8 +6659,11 @@
       <c r="G235" s="3">
         <v>48303.6</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>19</v>
       </c>
@@ -6097,7 +6674,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E236" s="9">
         <v>1170</v>
@@ -6108,8 +6685,11 @@
       <c r="G236" s="3">
         <v>25770.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>19</v>
       </c>
@@ -6120,7 +6700,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E237" s="9">
         <v>1092</v>
@@ -6131,8 +6711,11 @@
       <c r="G237" s="3">
         <v>46154.7</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E238" s="9">
         <v>776</v>
@@ -6154,8 +6737,11 @@
       <c r="G238" s="3">
         <v>21816</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>19</v>
       </c>
@@ -6166,7 +6752,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E239" s="9">
         <v>818</v>
@@ -6177,8 +6763,11 @@
       <c r="G239" s="3">
         <v>18467.400000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>19</v>
       </c>
@@ -6189,7 +6778,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E240" s="9">
         <v>1207</v>
@@ -6200,8 +6789,11 @@
       <c r="G240" s="3">
         <v>34573.9</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>19</v>
       </c>
@@ -6212,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E241" s="9">
         <v>1244</v>
@@ -6222,6 +6814,9 @@
       </c>
       <c r="G241" s="3">
         <v>29023.200000000001</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
